--- a/src/test/resources/TestData/testdata.xlsx
+++ b/src/test/resources/TestData/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CG_Training\new workspace\MagicBricksProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C568A65-E816-4459-974B-35850D389A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F34C2D-EA55-4CB7-8DEC-AFDE879AFD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC66D168-4CDE-4F56-9FB8-0C4FDA025878}"/>
+    <workbookView xWindow="1090" yWindow="1090" windowWidth="10580" windowHeight="8980" xr2:uid="{FC66D168-4CDE-4F56-9FB8-0C4FDA025878}"/>
   </bookViews>
   <sheets>
     <sheet name="PropWorthEstimationData" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Rajajinagar, Bangalore</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t xml:space="preserve">Laxman Nagar Baner </t>
+  </si>
+  <si>
+    <t>sukanya</t>
+  </si>
+  <si>
+    <t>1975sukanya@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -174,6 +180,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -493,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7F0B56-D74D-4A9E-9D81-A51B3D36549E}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -576,13 +585,13 @@
         <v>500000</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="L2" s="1">
-        <v>6361518492</v>
+        <v>9740467112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -620,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="L3" s="1">
-        <v>6361518492</v>
+        <v>8660303489</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -658,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="1">
-        <v>6361518492</v>
+        <v>8660303489</v>
       </c>
     </row>
   </sheetData>
